--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1369188.856627428</v>
+        <v>1315162.168907477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4356860.590084109</v>
+        <v>4356860.590084108</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11460762.92314624</v>
+        <v>11460762.92314623</v>
       </c>
     </row>
     <row r="9">
@@ -2317,59 +2317,59 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.83779371908482</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>58.565323648987</v>
+      </c>
+      <c r="S23" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>90.40311736807178</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X23" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.02374055639662</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.37937681167517</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W24" t="n">
-        <v>102.6375083652041</v>
+        <v>69.47146742373803</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.98959708500684</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>102.6375083652041</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="U25" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="V25" t="n">
-        <v>4.413520283064928</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>90.40311736807182</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>102.6375083652041</v>
+        <v>101.6647872975984</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.29440282996953</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810225</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="V28" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>102.6375083652041</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T29" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="U29" t="n">
-        <v>90.4031173680718</v>
+        <v>92.42197337069676</v>
       </c>
       <c r="V29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>20.7127998521094</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.14616727284455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S30" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="V30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U31" t="n">
-        <v>90.40311736807178</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V31" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>102.6375083652041</v>
+        <v>90.40311736807182</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,65 +3028,65 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>102.6375083652041</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E33" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G33" t="n">
         <v>43.98433704653786</v>
       </c>
       <c r="H33" t="n">
-        <v>6.446397360844854</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>77.13580116780795</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.46890610757507</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V34" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>90.40311736807182</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="F35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="H35" t="n">
-        <v>90.40311736807182</v>
       </c>
       <c r="I35" t="n">
         <v>102.6375083652041</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52685324824814</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>25.41025247902461</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>80.06140014972087</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T37" t="n">
-        <v>21.94604625571544</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,23 +3505,23 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>90.40311736807178</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
         <v>51.7100322767111</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>40.47367101193941</v>
       </c>
       <c r="V39" t="n">
-        <v>6.533988359200926</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>38.02517974908333</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>90.4031173680718</v>
       </c>
       <c r="V40" t="n">
         <v>102.6375083652041</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>92.42197337069676</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>90.40311736807182</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.41813871014586</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W42" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="X42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>53.49153969494797</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>96.17058244436072</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.91157767312387</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>96.8700432889152</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.42197337069669</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>88.09305158464012</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54.04020557456307</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>39.49574879399918</v>
       </c>
       <c r="X45" t="n">
         <v>102.6375083652041</v>
@@ -4137,73 +4137,73 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>99.36500743964183</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>93.6756182936341</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>44.10871453810226</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>36.91157767312387</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V46" t="n">
-        <v>9.382825156845643</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.211000669216329</v>
+        <v>40.3703882642515</v>
       </c>
       <c r="C23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K23" t="n">
-        <v>16.05657832410927</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L23" t="n">
-        <v>16.05657832410927</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M23" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N23" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="O23" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P23" t="n">
         <v>410.5500334608165</v>
@@ -6013,28 +6013,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R23" t="n">
-        <v>410.5500334608165</v>
+        <v>351.3931408860822</v>
       </c>
       <c r="S23" t="n">
-        <v>319.233753291047</v>
+        <v>247.7188900121386</v>
       </c>
       <c r="T23" t="n">
-        <v>319.233753291047</v>
+        <v>247.7188900121386</v>
       </c>
       <c r="U23" t="n">
-        <v>319.233753291047</v>
+        <v>247.7188900121386</v>
       </c>
       <c r="V23" t="n">
-        <v>319.233753291047</v>
+        <v>247.7188900121386</v>
       </c>
       <c r="W23" t="n">
-        <v>319.233753291047</v>
+        <v>144.0446391381951</v>
       </c>
       <c r="X23" t="n">
-        <v>215.5595024171034</v>
+        <v>40.3703882642515</v>
       </c>
       <c r="Y23" t="n">
-        <v>111.8852515431599</v>
+        <v>40.3703882642515</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.33599113022302</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="C24" t="n">
-        <v>18.33599113022302</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="D24" t="n">
-        <v>8.211000669216329</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="E24" t="n">
-        <v>8.211000669216329</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="F24" t="n">
-        <v>8.211000669216329</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="G24" t="n">
-        <v>8.211000669216329</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="H24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K24" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L24" t="n">
-        <v>36.32207510283095</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M24" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N24" t="n">
+        <v>211.4332672323205</v>
+      </c>
+      <c r="O24" t="n">
         <v>239.5443416659351</v>
-      </c>
-      <c r="O24" t="n">
-        <v>341.1554749474872</v>
       </c>
       <c r="P24" t="n">
         <v>341.1554749474872</v>
@@ -6095,25 +6095,25 @@
         <v>410.5500334608165</v>
       </c>
       <c r="S24" t="n">
-        <v>329.3587437520537</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T24" t="n">
-        <v>329.3587437520537</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U24" t="n">
-        <v>225.6844928781101</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V24" t="n">
-        <v>225.6844928781101</v>
+        <v>99.52728083898585</v>
       </c>
       <c r="W24" t="n">
-        <v>122.0102420041666</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="X24" t="n">
-        <v>122.0102420041666</v>
+        <v>29.35408142106864</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.33599113022302</v>
+        <v>29.35408142106864</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K25" t="n">
-        <v>76.55496011083333</v>
+        <v>76.55496011083336</v>
       </c>
       <c r="L25" t="n">
-        <v>103.8690851185463</v>
+        <v>178.1660933923854</v>
       </c>
       <c r="M25" t="n">
-        <v>205.4802184000984</v>
+        <v>279.5092900143015</v>
       </c>
       <c r="N25" t="n">
-        <v>249.1710690555347</v>
+        <v>381.1204232958536</v>
       </c>
       <c r="O25" t="n">
-        <v>317.7631699092673</v>
+        <v>405.4596999307529</v>
       </c>
       <c r="P25" t="n">
         <v>405.4596999307529</v>
@@ -6171,28 +6171,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R25" t="n">
-        <v>323.6918545870722</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0176037131286</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T25" t="n">
-        <v>116.3433528391851</v>
+        <v>319.233753291047</v>
       </c>
       <c r="U25" t="n">
-        <v>12.66910196524151</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="V25" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="W25" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="C26" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="D26" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="E26" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="F26" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="G26" t="n">
-        <v>111.8852515431599</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="H26" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898585</v>
       </c>
       <c r="I26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L26" t="n">
-        <v>16.05657832410927</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="M26" t="n">
-        <v>117.6677116056613</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N26" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O26" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P26" t="n">
         <v>410.5500334608165</v>
@@ -6256,22 +6256,22 @@
         <v>410.5500334608165</v>
       </c>
       <c r="T26" t="n">
-        <v>410.5500334608165</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U26" t="n">
-        <v>410.5500334608165</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V26" t="n">
-        <v>410.5500334608165</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="W26" t="n">
-        <v>410.5500334608165</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="X26" t="n">
-        <v>410.5500334608165</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8757825868729</v>
+        <v>203.2015317129294</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.211000669216329</v>
+        <v>204.1840782458644</v>
       </c>
       <c r="C27" t="n">
-        <v>8.211000669216329</v>
+        <v>204.1840782458644</v>
       </c>
       <c r="D27" t="n">
-        <v>8.211000669216329</v>
+        <v>104.9976136134723</v>
       </c>
       <c r="E27" t="n">
-        <v>8.211000669216329</v>
+        <v>104.9976136134723</v>
       </c>
       <c r="F27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K27" t="n">
-        <v>105.7166336161602</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L27" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M27" t="n">
-        <v>308.9389001792644</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N27" t="n">
         <v>410.5500334608165</v>
@@ -6335,22 +6335,22 @@
         <v>410.5500334608165</v>
       </c>
       <c r="T27" t="n">
-        <v>319.233753291047</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U27" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="V27" t="n">
-        <v>111.8852515431599</v>
+        <v>307.858329119808</v>
       </c>
       <c r="W27" t="n">
-        <v>111.8852515431599</v>
+        <v>307.858329119808</v>
       </c>
       <c r="X27" t="n">
-        <v>8.211000669216329</v>
+        <v>307.858329119808</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.211000669216329</v>
+        <v>307.858329119808</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I28" t="n">
-        <v>52.76525777841051</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J28" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437709</v>
+        <v>34.92216468437721</v>
       </c>
       <c r="L28" t="n">
-        <v>110.9942506148749</v>
+        <v>110.994250614875</v>
       </c>
       <c r="M28" t="n">
-        <v>198.9402497298819</v>
+        <v>198.940249729882</v>
       </c>
       <c r="N28" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081031</v>
       </c>
       <c r="O28" t="n">
         <v>364.4862988657871</v>
@@ -6408,28 +6408,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R28" t="n">
-        <v>306.8757825868729</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S28" t="n">
-        <v>306.8757825868729</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T28" t="n">
-        <v>306.8757825868729</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U28" t="n">
-        <v>203.2015317129294</v>
+        <v>319.233753291047</v>
       </c>
       <c r="V28" t="n">
-        <v>203.2015317129294</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="W28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.5272808389858</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K29" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L29" t="n">
-        <v>211.4332672323205</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="M29" t="n">
-        <v>211.4332672323205</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N29" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O29" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P29" t="n">
         <v>410.5500334608165</v>
@@ -6487,19 +6487,19 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R29" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="S29" t="n">
-        <v>410.5500334608165</v>
+        <v>205.2407802004294</v>
       </c>
       <c r="T29" t="n">
-        <v>306.875782586873</v>
+        <v>101.5665293264858</v>
       </c>
       <c r="U29" t="n">
-        <v>215.5595024171035</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="V29" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="W29" t="n">
         <v>8.211000669216331</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.211000669216331</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="C30" t="n">
-        <v>8.211000669216331</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="D30" t="n">
-        <v>8.211000669216331</v>
+        <v>234.532178115982</v>
       </c>
       <c r="E30" t="n">
-        <v>8.211000669216331</v>
+        <v>234.532178115982</v>
       </c>
       <c r="F30" t="n">
-        <v>8.211000669216331</v>
+        <v>137.7455651717261</v>
       </c>
       <c r="G30" t="n">
-        <v>8.211000669216331</v>
+        <v>48.76268478320073</v>
       </c>
       <c r="H30" t="n">
-        <v>8.211000669216331</v>
+        <v>48.76268478320073</v>
       </c>
       <c r="I30" t="n">
         <v>8.211000669216331</v>
@@ -6545,49 +6545,49 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K30" t="n">
-        <v>36.32207510283094</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L30" t="n">
-        <v>137.933208384383</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M30" t="n">
-        <v>239.5443416659351</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N30" t="n">
-        <v>239.5443416659351</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O30" t="n">
-        <v>239.5443416659351</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="P30" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q30" t="n">
         <v>410.5500334608165</v>
       </c>
       <c r="R30" t="n">
-        <v>410.5500334608165</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="S30" t="n">
-        <v>319.233753291047</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="T30" t="n">
-        <v>319.233753291047</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="U30" t="n">
-        <v>215.5595024171035</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="V30" t="n">
-        <v>111.8852515431599</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="W30" t="n">
-        <v>8.211000669216331</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="X30" t="n">
-        <v>8.211000669216331</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.211000669216331</v>
+        <v>255.4541981686178</v>
       </c>
     </row>
     <row r="31">
@@ -6633,7 +6633,7 @@
         <v>198.9402497298819</v>
       </c>
       <c r="N31" t="n">
-        <v>291.3890613081031</v>
+        <v>291.389061308103</v>
       </c>
       <c r="O31" t="n">
         <v>364.4862988657871</v>
@@ -6651,16 +6651,16 @@
         <v>410.5500334608165</v>
       </c>
       <c r="T31" t="n">
-        <v>410.5500334608165</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U31" t="n">
-        <v>319.233753291047</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="V31" t="n">
-        <v>215.5595024171035</v>
+        <v>99.52728083898585</v>
       </c>
       <c r="W31" t="n">
-        <v>111.8852515431599</v>
+        <v>99.52728083898585</v>
       </c>
       <c r="X31" t="n">
         <v>8.211000669216331</v>
@@ -6679,16 +6679,16 @@
         <v>111.8852515431599</v>
       </c>
       <c r="C32" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D32" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E32" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F32" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G32" t="n">
         <v>8.211000669216331</v>
@@ -6706,16 +6706,16 @@
         <v>109.8221339507684</v>
       </c>
       <c r="L32" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M32" t="n">
-        <v>117.6677116056614</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N32" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="O32" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P32" t="n">
         <v>410.5500334608165</v>
@@ -6727,25 +6727,25 @@
         <v>410.5500334608165</v>
       </c>
       <c r="S32" t="n">
-        <v>410.5500334608165</v>
+        <v>319.233753291047</v>
       </c>
       <c r="T32" t="n">
-        <v>410.5500334608165</v>
+        <v>319.233753291047</v>
       </c>
       <c r="U32" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="V32" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="W32" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="X32" t="n">
-        <v>319.233753291047</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.0863893016516</v>
+        <v>258.7219479042483</v>
       </c>
       <c r="C33" t="n">
-        <v>124.0863893016516</v>
+        <v>178.5711207611745</v>
       </c>
       <c r="D33" t="n">
-        <v>124.0863893016516</v>
+        <v>123.9389132379766</v>
       </c>
       <c r="E33" t="n">
-        <v>59.15113643424938</v>
+        <v>123.9389132379766</v>
       </c>
       <c r="F33" t="n">
-        <v>59.15113643424938</v>
+        <v>71.70655740291487</v>
       </c>
       <c r="G33" t="n">
-        <v>14.7225131549182</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="H33" t="n">
         <v>8.211000669216331</v>
@@ -6782,22 +6782,22 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K33" t="n">
-        <v>36.32207510283094</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L33" t="n">
-        <v>36.32207510283094</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="M33" t="n">
-        <v>137.933208384383</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="N33" t="n">
-        <v>239.5443416659351</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="O33" t="n">
-        <v>239.5443416659351</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="P33" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q33" t="n">
         <v>410.5500334608165</v>
@@ -6806,25 +6806,25 @@
         <v>410.5500334608165</v>
       </c>
       <c r="S33" t="n">
-        <v>331.4348910495387</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T33" t="n">
-        <v>227.7606401755951</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U33" t="n">
-        <v>124.0863893016516</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="V33" t="n">
-        <v>124.0863893016516</v>
+        <v>332.635082786263</v>
       </c>
       <c r="W33" t="n">
-        <v>124.0863893016516</v>
+        <v>332.635082786263</v>
       </c>
       <c r="X33" t="n">
-        <v>124.0863893016516</v>
+        <v>332.635082786263</v>
       </c>
       <c r="Y33" t="n">
-        <v>124.0863893016516</v>
+        <v>332.635082786263</v>
       </c>
     </row>
     <row r="34">
@@ -6864,10 +6864,10 @@
         <v>78.58979207709835</v>
       </c>
       <c r="L34" t="n">
-        <v>105.9039170848113</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M34" t="n">
-        <v>187.7430960602859</v>
+        <v>245.6633786864018</v>
       </c>
       <c r="N34" t="n">
         <v>289.354229341838</v>
@@ -6882,28 +6882,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R34" t="n">
-        <v>410.5500334608165</v>
+        <v>325.7680018845572</v>
       </c>
       <c r="S34" t="n">
-        <v>410.5500334608165</v>
+        <v>325.7680018845572</v>
       </c>
       <c r="T34" t="n">
-        <v>410.5500334608165</v>
+        <v>325.7680018845572</v>
       </c>
       <c r="U34" t="n">
-        <v>410.5500334608165</v>
+        <v>222.0937510106136</v>
       </c>
       <c r="V34" t="n">
-        <v>306.875782586873</v>
+        <v>222.0937510106136</v>
       </c>
       <c r="W34" t="n">
-        <v>203.2015317129294</v>
+        <v>118.4195001366701</v>
       </c>
       <c r="X34" t="n">
-        <v>99.52728083898585</v>
+        <v>118.4195001366701</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216331</v>
+        <v>14.7452492627265</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>410.5500334608165</v>
       </c>
       <c r="E35" t="n">
-        <v>410.5500334608165</v>
+        <v>319.233753291047</v>
       </c>
       <c r="F35" t="n">
-        <v>306.875782586873</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="G35" t="n">
-        <v>203.2015317129294</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="H35" t="n">
         <v>111.8852515431599</v>
@@ -6940,19 +6940,19 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K35" t="n">
-        <v>16.05657832410927</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L35" t="n">
-        <v>16.05657832410927</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M35" t="n">
-        <v>117.6677116056614</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872134</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="O35" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P35" t="n">
         <v>410.5500334608165</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>195.2263911705497</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="C36" t="n">
-        <v>115.075564027476</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="D36" t="n">
-        <v>60.44335650427806</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="E36" t="n">
-        <v>60.44335650427806</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="F36" t="n">
-        <v>8.211000669216331</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="G36" t="n">
-        <v>8.211000669216331</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="H36" t="n">
         <v>8.211000669216331</v>
@@ -7022,46 +7022,46 @@
         <v>8.211000669216331</v>
       </c>
       <c r="L36" t="n">
-        <v>8.211000669216331</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M36" t="n">
-        <v>36.32207510283094</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="N36" t="n">
-        <v>137.933208384383</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="O36" t="n">
-        <v>239.5443416659351</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P36" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q36" t="n">
         <v>410.5500334608165</v>
       </c>
       <c r="R36" t="n">
-        <v>403.6827061517556</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S36" t="n">
-        <v>324.5675637404777</v>
+        <v>338.3006867454143</v>
       </c>
       <c r="T36" t="n">
-        <v>324.5675637404777</v>
+        <v>338.3006867454143</v>
       </c>
       <c r="U36" t="n">
-        <v>298.9006420444933</v>
+        <v>234.6264358714708</v>
       </c>
       <c r="V36" t="n">
-        <v>298.9006420444933</v>
+        <v>234.6264358714708</v>
       </c>
       <c r="W36" t="n">
-        <v>195.2263911705497</v>
+        <v>130.9521849975272</v>
       </c>
       <c r="X36" t="n">
-        <v>195.2263911705497</v>
+        <v>27.27793412358369</v>
       </c>
       <c r="Y36" t="n">
-        <v>195.2263911705497</v>
+        <v>27.27793412358369</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.926027519992</v>
+        <v>138.6594187333523</v>
       </c>
       <c r="C37" t="n">
-        <v>199.926027519992</v>
+        <v>64.02543794349874</v>
       </c>
       <c r="D37" t="n">
-        <v>199.926027519992</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3151360756522</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F37" t="n">
-        <v>146.3151360756522</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G37" t="n">
-        <v>70.92948027586836</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H37" t="n">
-        <v>70.92948027586836</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I37" t="n">
         <v>8.211000669216331</v>
@@ -7119,28 +7119,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R37" t="n">
-        <v>325.7680018845572</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S37" t="n">
-        <v>222.0937510106136</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T37" t="n">
-        <v>199.926027519992</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U37" t="n">
-        <v>199.926027519992</v>
+        <v>329.6799322994823</v>
       </c>
       <c r="V37" t="n">
-        <v>199.926027519992</v>
+        <v>329.6799322994823</v>
       </c>
       <c r="W37" t="n">
-        <v>199.926027519992</v>
+        <v>226.0056814255387</v>
       </c>
       <c r="X37" t="n">
-        <v>199.926027519992</v>
+        <v>226.0056814255387</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.926027519992</v>
+        <v>226.0056814255387</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C38" t="n">
         <v>111.8852515431599</v>
@@ -7165,7 +7165,7 @@
         <v>111.8852515431599</v>
       </c>
       <c r="G38" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H38" t="n">
         <v>8.211000669216331</v>
@@ -7180,16 +7180,16 @@
         <v>109.8221339507684</v>
       </c>
       <c r="L38" t="n">
-        <v>211.4332672323205</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M38" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="N38" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="O38" t="n">
-        <v>320.8899781687655</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P38" t="n">
         <v>410.5500334608165</v>
@@ -7204,7 +7204,7 @@
         <v>410.5500334608165</v>
       </c>
       <c r="T38" t="n">
-        <v>319.233753291047</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U38" t="n">
         <v>319.233753291047</v>
@@ -7213,13 +7213,13 @@
         <v>215.5595024171035</v>
       </c>
       <c r="W38" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X38" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.5595024171035</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>214.2933246249171</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="C39" t="n">
-        <v>134.1424974818434</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="D39" t="n">
-        <v>79.51028995864542</v>
+        <v>125.3786093716803</v>
       </c>
       <c r="E39" t="n">
-        <v>79.51028995864542</v>
+        <v>60.44335650427806</v>
       </c>
       <c r="F39" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G39" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H39" t="n">
         <v>8.211000669216331</v>
@@ -7262,16 +7262,16 @@
         <v>109.8221339507684</v>
       </c>
       <c r="M39" t="n">
+        <v>109.8221339507684</v>
+      </c>
+      <c r="N39" t="n">
         <v>211.4332672323205</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>313.0444005138726</v>
       </c>
-      <c r="O39" t="n">
-        <v>341.1554749474872</v>
-      </c>
       <c r="P39" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q39" t="n">
         <v>410.5500334608165</v>
@@ -7283,22 +7283,22 @@
         <v>324.5675637404777</v>
       </c>
       <c r="T39" t="n">
-        <v>324.5675637404777</v>
+        <v>220.8933128665342</v>
       </c>
       <c r="U39" t="n">
-        <v>324.5675637404777</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="V39" t="n">
-        <v>317.9675754988606</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="W39" t="n">
-        <v>214.2933246249171</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="X39" t="n">
-        <v>214.2933246249171</v>
+        <v>180.0108168948782</v>
       </c>
       <c r="Y39" t="n">
-        <v>214.2933246249171</v>
+        <v>180.0108168948782</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>306.875782586873</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C40" t="n">
-        <v>306.875782586873</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D40" t="n">
-        <v>306.875782586873</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E40" t="n">
-        <v>268.4665101130514</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8787647531944</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G40" t="n">
-        <v>140.4931089534106</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H40" t="n">
-        <v>70.92948027586836</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I40" t="n">
         <v>8.211000669216331</v>
@@ -7338,19 +7338,19 @@
         <v>78.58979207709835</v>
       </c>
       <c r="L40" t="n">
-        <v>105.9039170848113</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M40" t="n">
-        <v>187.7430960602859</v>
+        <v>281.8120586402025</v>
       </c>
       <c r="N40" t="n">
-        <v>289.354229341838</v>
+        <v>383.4231919217546</v>
       </c>
       <c r="O40" t="n">
-        <v>313.6935059767374</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4248679644879</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q40" t="n">
         <v>410.5500334608165</v>
@@ -7362,22 +7362,22 @@
         <v>410.5500334608165</v>
       </c>
       <c r="T40" t="n">
-        <v>410.5500334608165</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U40" t="n">
-        <v>410.5500334608165</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="V40" t="n">
-        <v>306.875782586873</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W40" t="n">
-        <v>306.875782586873</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X40" t="n">
-        <v>306.875782586873</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="Y40" t="n">
-        <v>306.875782586873</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>308.9150310743729</v>
+      </c>
+      <c r="C41" t="n">
+        <v>308.9150310743729</v>
+      </c>
+      <c r="D41" t="n">
+        <v>308.9150310743729</v>
+      </c>
+      <c r="E41" t="n">
+        <v>308.9150310743729</v>
+      </c>
+      <c r="F41" t="n">
+        <v>308.9150310743729</v>
+      </c>
+      <c r="G41" t="n">
+        <v>205.2407802004294</v>
+      </c>
+      <c r="H41" t="n">
         <v>111.8852515431599</v>
-      </c>
-      <c r="C41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="D41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="E41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="F41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.211000669216331</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.211000669216331</v>
       </c>
       <c r="I41" t="n">
         <v>8.211000669216331</v>
@@ -7420,13 +7420,13 @@
         <v>211.4332672323205</v>
       </c>
       <c r="M41" t="n">
-        <v>308.9389001792644</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="N41" t="n">
-        <v>410.5500334608165</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O41" t="n">
-        <v>410.5500334608165</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P41" t="n">
         <v>410.5500334608165</v>
@@ -7435,28 +7435,28 @@
         <v>410.5500334608165</v>
       </c>
       <c r="R41" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="S41" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="T41" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="U41" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="V41" t="n">
-        <v>410.5500334608165</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="W41" t="n">
-        <v>319.233753291047</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="X41" t="n">
-        <v>215.5595024171035</v>
+        <v>308.9150310743729</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.8852515431599</v>
+        <v>308.9150310743729</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>99.52728083898585</v>
       </c>
       <c r="C42" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D42" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E42" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F42" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G42" t="n">
-        <v>99.52728083898585</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H42" t="n">
-        <v>35.90609027542428</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I42" t="n">
         <v>8.211000669216331</v>
@@ -7493,16 +7493,16 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K42" t="n">
-        <v>8.211000669216331</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L42" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323205</v>
       </c>
       <c r="M42" t="n">
-        <v>207.3277668977123</v>
+        <v>313.0444005138726</v>
       </c>
       <c r="N42" t="n">
-        <v>308.9389001792644</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="O42" t="n">
         <v>410.5500334608165</v>
@@ -7517,19 +7517,19 @@
         <v>410.5500334608165</v>
       </c>
       <c r="S42" t="n">
-        <v>306.875782586873</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T42" t="n">
-        <v>306.875782586873</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="U42" t="n">
         <v>306.875782586873</v>
       </c>
       <c r="V42" t="n">
-        <v>306.875782586873</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="W42" t="n">
-        <v>203.2015317129294</v>
+        <v>99.52728083898585</v>
       </c>
       <c r="X42" t="n">
         <v>99.52728083898585</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.24285894694155</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="C43" t="n">
-        <v>62.24285894694155</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="D43" t="n">
-        <v>8.211000669216331</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="E43" t="n">
-        <v>8.211000669216331</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="F43" t="n">
-        <v>8.211000669216331</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G43" t="n">
         <v>8.211000669216331</v>
@@ -7572,13 +7572,13 @@
         <v>8.211000669216331</v>
       </c>
       <c r="K43" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L43" t="n">
-        <v>110.994250614875</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M43" t="n">
-        <v>198.940249729882</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N43" t="n">
         <v>291.3890613081031</v>
@@ -7590,31 +7590,31 @@
         <v>410.5500334608165</v>
       </c>
       <c r="Q43" t="n">
-        <v>373.2656115687722</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R43" t="n">
-        <v>373.2656115687722</v>
+        <v>312.7015048861547</v>
       </c>
       <c r="S43" t="n">
-        <v>373.2656115687722</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="T43" t="n">
-        <v>373.2656115687722</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="U43" t="n">
-        <v>269.5913606948287</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="V43" t="n">
-        <v>165.9171098208851</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="W43" t="n">
-        <v>62.24285894694155</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="X43" t="n">
-        <v>62.24285894694155</v>
+        <v>209.0272540122111</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.24285894694155</v>
+        <v>209.0272540122111</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="C44" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="D44" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="E44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K44" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L44" t="n">
-        <v>211.4332672323204</v>
+        <v>117.6677116056614</v>
       </c>
       <c r="M44" t="n">
-        <v>313.0444005138725</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="N44" t="n">
-        <v>410.5500334608164</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O44" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687655</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R44" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S44" t="n">
-        <v>215.5595024171034</v>
+        <v>319.233753291047</v>
       </c>
       <c r="T44" t="n">
-        <v>215.5595024171034</v>
+        <v>319.233753291047</v>
       </c>
       <c r="U44" t="n">
-        <v>111.8852515431599</v>
+        <v>319.233753291047</v>
       </c>
       <c r="V44" t="n">
-        <v>111.8852515431599</v>
+        <v>319.233753291047</v>
       </c>
       <c r="W44" t="n">
-        <v>8.211000669216329</v>
+        <v>319.233753291047</v>
       </c>
       <c r="X44" t="n">
-        <v>8.211000669216329</v>
+        <v>319.233753291047</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.211000669216329</v>
+        <v>319.233753291047</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="C45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="D45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="E45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="F45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="G45" t="n">
-        <v>62.79706690614873</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K45" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="L45" t="n">
-        <v>211.4332672323204</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="M45" t="n">
-        <v>313.0444005138725</v>
+        <v>36.32207510283094</v>
       </c>
       <c r="N45" t="n">
-        <v>410.5500334608164</v>
+        <v>137.933208384383</v>
       </c>
       <c r="O45" t="n">
-        <v>410.5500334608164</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="P45" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474872</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R45" t="n">
-        <v>359.1284490425612</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="S45" t="n">
-        <v>359.1284490425612</v>
+        <v>359.1284490425613</v>
       </c>
       <c r="T45" t="n">
-        <v>359.1284490425612</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="U45" t="n">
-        <v>359.1284490425612</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="V45" t="n">
-        <v>359.1284490425612</v>
+        <v>255.4541981686178</v>
       </c>
       <c r="W45" t="n">
-        <v>359.1284490425612</v>
+        <v>215.5595024171035</v>
       </c>
       <c r="X45" t="n">
-        <v>255.4541981686177</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.7799472946741</v>
+        <v>8.211000669216331</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="C46" t="n">
-        <v>52.76525777841053</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="D46" t="n">
-        <v>52.76525777841053</v>
+        <v>102.8328373294528</v>
       </c>
       <c r="E46" t="n">
-        <v>52.76525777841053</v>
+        <v>102.8328373294528</v>
       </c>
       <c r="F46" t="n">
-        <v>52.76525777841053</v>
+        <v>102.8328373294528</v>
       </c>
       <c r="G46" t="n">
-        <v>52.76525777841053</v>
+        <v>102.8328373294528</v>
       </c>
       <c r="H46" t="n">
-        <v>52.76525777841053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="I46" t="n">
-        <v>52.76525777841053</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216331</v>
       </c>
       <c r="K46" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437711</v>
       </c>
       <c r="L46" t="n">
         <v>110.9942506148749</v>
@@ -7818,40 +7818,40 @@
         <v>198.9402497298819</v>
       </c>
       <c r="N46" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081031</v>
       </c>
       <c r="O46" t="n">
-        <v>364.486298865787</v>
+        <v>364.4862988657871</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="Q46" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="R46" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="S46" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608165</v>
       </c>
       <c r="T46" t="n">
-        <v>373.2656115687721</v>
+        <v>306.875782586873</v>
       </c>
       <c r="U46" t="n">
-        <v>269.5913606948286</v>
+        <v>306.875782586873</v>
       </c>
       <c r="V46" t="n">
-        <v>260.1137595262976</v>
+        <v>306.875782586873</v>
       </c>
       <c r="W46" t="n">
-        <v>260.1137595262976</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="X46" t="n">
-        <v>260.1137595262976</v>
+        <v>203.2015317129294</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.439508652354</v>
+        <v>203.2015317129294</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.0146769590138</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M23" t="n">
         <v>332.9837415924769</v>
       </c>
       <c r="N23" t="n">
-        <v>332.050571961795</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>332.7357197868909</v>
+        <v>328.5887497519331</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L24" t="n">
-        <v>166.949404460293</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M24" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>233.9792204485374</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>245.2337528096485</v>
+        <v>170.9912691248632</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795344</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9880,19 +9880,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>243.6912408840205</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M26" t="n">
         <v>332.9837415924769</v>
       </c>
       <c r="N26" t="n">
-        <v>332.050571961795</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O26" t="n">
         <v>332.7357197868909</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>236.3319773046053</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L27" t="n">
         <v>241.1918881450783</v>
@@ -9965,7 +9965,7 @@
         <v>244.7715422872224</v>
       </c>
       <c r="N27" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>322.7273594101847</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>338.4039233351914</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N29" t="n">
-        <v>237.3378895106242</v>
+        <v>332.0505719617951</v>
       </c>
       <c r="O29" t="n">
         <v>332.7357197868909</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>166.2364636547778</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L30" t="n">
-        <v>241.1918881450783</v>
+        <v>237.0449181101205</v>
       </c>
       <c r="M30" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10211,7 +10211,7 @@
         <v>236.6119157795344</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,19 +10354,19 @@
         <v>322.7273594101847</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M32" t="n">
-        <v>238.271059141306</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N32" t="n">
-        <v>332.0505719617951</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>332.7357197868909</v>
+        <v>328.5887497519331</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>166.2364636547778</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.7715422872224</v>
+        <v>240.6245722522647</v>
       </c>
       <c r="N33" t="n">
         <v>233.9792204485374</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P33" t="n">
         <v>236.6119157795344</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>228.0146769590138</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351914</v>
       </c>
       <c r="M35" t="n">
         <v>332.9837415924769</v>
       </c>
       <c r="N35" t="n">
-        <v>332.0505719617951</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M36" t="n">
-        <v>170.5290586024371</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N36" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O36" t="n">
         <v>245.2337528096486</v>
       </c>
       <c r="P36" t="n">
-        <v>236.6119157795344</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,10 +10828,10 @@
         <v>322.7273594101847</v>
       </c>
       <c r="L38" t="n">
-        <v>338.4039233351914</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M38" t="n">
-        <v>238.271059141306</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N38" t="n">
         <v>332.0505719617951</v>
@@ -10840,7 +10840,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,19 +10910,19 @@
         <v>241.1918881450783</v>
       </c>
       <c r="M39" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>233.9792204485374</v>
       </c>
       <c r="O39" t="n">
-        <v>170.9912691248633</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>232.4649457445767</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,16 +11068,16 @@
         <v>338.4039233351914</v>
       </c>
       <c r="M41" t="n">
-        <v>328.8367715575191</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N41" t="n">
-        <v>332.0505719617951</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L42" t="n">
         <v>241.1918881450783</v>
       </c>
       <c r="M42" t="n">
-        <v>240.6245722522647</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N42" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O42" t="n">
-        <v>245.2337528096486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>322.7273594101846</v>
+        <v>322.7273594101847</v>
       </c>
       <c r="L44" t="n">
-        <v>338.4039233351913</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M44" t="n">
-        <v>332.9837415924768</v>
+        <v>332.9837415924769</v>
       </c>
       <c r="N44" t="n">
-        <v>327.9036019268373</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>244.7715422872224</v>
+        <v>170.5290586024371</v>
       </c>
       <c r="N45" t="n">
-        <v>229.8322504135796</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096486</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795344</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23743,16 +23743,16 @@
         <v>290.6265757800991</v>
       </c>
       <c r="F17" t="n">
-        <v>315.5722514495488</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9989432229724</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H17" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I17" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.56532364898703</v>
+        <v>58.565323648987</v>
       </c>
       <c r="S17" t="n">
         <v>117.7162752940827</v>
@@ -23791,13 +23791,13 @@
         <v>160.0418586156738</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4484641779723</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W17" t="n">
-        <v>257.9371744252504</v>
+        <v>257.9371744252503</v>
       </c>
       <c r="X17" t="n">
-        <v>278.4273063863064</v>
+        <v>278.4273063863063</v>
       </c>
       <c r="Y17" t="n">
         <v>294.9341443638909</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C18" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1412712724761</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E18" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F18" t="n">
-        <v>53.76541810122123</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G18" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H18" t="n">
-        <v>20.93164994433381</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.854039860480484</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S18" t="n">
-        <v>80.37937681167517</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T18" t="n">
-        <v>108.860934402659</v>
+        <v>108.8609344026589</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6375877888122</v>
+        <v>134.6375877888121</v>
       </c>
       <c r="V18" t="n">
         <v>141.4967928572626</v>
       </c>
       <c r="W18" t="n">
-        <v>160.391188868757</v>
+        <v>160.3911888687569</v>
       </c>
       <c r="X18" t="n">
         <v>114.4691909113148</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.52818588977465</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C19" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D19" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E19" t="n">
-        <v>55.13016835440652</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F19" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G19" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H19" t="n">
-        <v>70.92337821527693</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I19" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J19" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.98959708500684</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S19" t="n">
         <v>132.7128037448096</v>
@@ -23949,10 +23949,10 @@
         <v>195.0152350643282</v>
       </c>
       <c r="V19" t="n">
-        <v>160.8338490316654</v>
+        <v>160.8338490316653</v>
       </c>
       <c r="W19" t="n">
-        <v>195.2192040444284</v>
+        <v>195.2192040444283</v>
       </c>
       <c r="X19" t="n">
         <v>134.4058610968745</v>
@@ -23980,16 +23980,16 @@
         <v>290.6265757800991</v>
       </c>
       <c r="F20" t="n">
-        <v>315.5722514495488</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9989432229724</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H20" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I20" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.56532364898703</v>
+        <v>58.565323648987</v>
       </c>
       <c r="S20" t="n">
         <v>117.7162752940827</v>
@@ -24028,13 +24028,13 @@
         <v>160.0418586156738</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4484641779723</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W20" t="n">
-        <v>257.9371744252504</v>
+        <v>257.9371744252503</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4273063863064</v>
+        <v>278.4273063863063</v>
       </c>
       <c r="Y20" t="n">
         <v>294.9341443638909</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C21" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D21" t="n">
-        <v>56.1412712724761</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E21" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F21" t="n">
-        <v>53.76541810122123</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G21" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H21" t="n">
-        <v>20.93164994433381</v>
+        <v>20.93164994433378</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.854039860480484</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S21" t="n">
-        <v>80.37937681167517</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T21" t="n">
-        <v>108.860934402659</v>
+        <v>108.8609344026589</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6375877888122</v>
+        <v>134.6375877888121</v>
       </c>
       <c r="V21" t="n">
         <v>141.4967928572626</v>
       </c>
       <c r="W21" t="n">
-        <v>160.391188868757</v>
+        <v>160.3911888687569</v>
       </c>
       <c r="X21" t="n">
         <v>114.4691909113148</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.52818588977465</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C22" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D22" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E22" t="n">
-        <v>55.13016835440652</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F22" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G22" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H22" t="n">
-        <v>70.92337821527693</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I22" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J22" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.98959708500684</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S22" t="n">
         <v>132.7128037448096</v>
@@ -24186,10 +24186,10 @@
         <v>195.0152350643282</v>
       </c>
       <c r="V22" t="n">
-        <v>160.8338490316654</v>
+        <v>160.8338490316653</v>
       </c>
       <c r="W22" t="n">
-        <v>195.2192040444284</v>
+        <v>195.2192040444283</v>
       </c>
       <c r="X22" t="n">
         <v>134.4058610968745</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.7925390061138</v>
+        <v>291.4300473713179</v>
       </c>
       <c r="C23" t="n">
-        <v>273.9690974788449</v>
+        <v>242.1313037597601</v>
       </c>
       <c r="D23" t="n">
         <v>263.3792473285203</v>
@@ -24217,16 +24217,16 @@
         <v>290.6265757800991</v>
       </c>
       <c r="F23" t="n">
-        <v>315.5722514495488</v>
+        <v>315.5722514495487</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9989432229724</v>
+        <v>323.9989432229723</v>
       </c>
       <c r="H23" t="n">
         <v>248.1710078236045</v>
       </c>
       <c r="I23" t="n">
-        <v>119.1720952782433</v>
+        <v>119.1720952782432</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898703</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.31315792601092</v>
+        <v>15.07876692887854</v>
       </c>
       <c r="T23" t="n">
         <v>131.7920552719687</v>
@@ -24265,16 +24265,16 @@
         <v>160.0418586156738</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4484641779723</v>
+        <v>236.4484641779722</v>
       </c>
       <c r="W23" t="n">
-        <v>257.9371744252504</v>
+        <v>155.2996660600462</v>
       </c>
       <c r="X23" t="n">
-        <v>175.7897980211023</v>
+        <v>175.7897980211022</v>
       </c>
       <c r="Y23" t="n">
-        <v>192.2966359986868</v>
+        <v>294.9341443638909</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.22938935770469</v>
+        <v>75.22938935770466</v>
       </c>
       <c r="C24" t="n">
-        <v>81.40470469615309</v>
+        <v>81.40470469615306</v>
       </c>
       <c r="D24" t="n">
-        <v>46.11753071607948</v>
+        <v>56.14127127247608</v>
       </c>
       <c r="E24" t="n">
-        <v>66.34128616323829</v>
+        <v>66.34128616323827</v>
       </c>
       <c r="F24" t="n">
-        <v>53.76541810122123</v>
+        <v>53.7654181012212</v>
       </c>
       <c r="G24" t="n">
-        <v>46.03972287104799</v>
+        <v>46.03972287104796</v>
       </c>
       <c r="H24" t="n">
-        <v>20.93164994433381</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.854039860480484</v>
+        <v>8.854039860480455</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>80.37937681167514</v>
       </c>
       <c r="T24" t="n">
-        <v>108.860934402659</v>
+        <v>6.2234260374548</v>
       </c>
       <c r="U24" t="n">
-        <v>32.00007942360806</v>
+        <v>32.00007942360801</v>
       </c>
       <c r="V24" t="n">
-        <v>141.4967928572626</v>
+        <v>38.85928449205846</v>
       </c>
       <c r="W24" t="n">
-        <v>57.75368050355284</v>
+        <v>90.91972144501889</v>
       </c>
       <c r="X24" t="n">
         <v>114.4691909113148</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.7413931199376</v>
+        <v>114.3789014851417</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.52818588977465</v>
+        <v>88.52818588977462</v>
       </c>
       <c r="C25" t="n">
-        <v>75.94302680646518</v>
+        <v>75.94302680646516</v>
       </c>
       <c r="D25" t="n">
-        <v>57.31167872604971</v>
+        <v>57.31167872604968</v>
       </c>
       <c r="E25" t="n">
-        <v>55.13016835440652</v>
+        <v>55.13016835440649</v>
       </c>
       <c r="F25" t="n">
-        <v>54.1172537307686</v>
+        <v>54.11725373076857</v>
       </c>
       <c r="G25" t="n">
-        <v>76.68718506629611</v>
+        <v>76.68718506629608</v>
       </c>
       <c r="H25" t="n">
-        <v>70.92337821527693</v>
+        <v>70.9233782152769</v>
       </c>
       <c r="I25" t="n">
-        <v>64.14668063509563</v>
+        <v>64.14668063509561</v>
       </c>
       <c r="J25" t="n">
-        <v>2.055385824510125</v>
+        <v>2.055385824510097</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.98959708500681</v>
       </c>
       <c r="S25" t="n">
-        <v>30.07529537960549</v>
+        <v>132.7128037448096</v>
       </c>
       <c r="T25" t="n">
-        <v>34.00428677091473</v>
+        <v>46.23867776804704</v>
       </c>
       <c r="U25" t="n">
-        <v>92.37772669912412</v>
+        <v>92.37772669912408</v>
       </c>
       <c r="V25" t="n">
-        <v>156.4203287486004</v>
+        <v>160.8338490316653</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2192040444284</v>
+        <v>92.5816956792242</v>
       </c>
       <c r="X25" t="n">
-        <v>134.4058610968745</v>
+        <v>31.76835273167035</v>
       </c>
       <c r="Y25" t="n">
         <v>127.2808590599321</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>243.0802587168383</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C26" t="n">
         <v>316.022426192437</v>
@@ -24451,7 +24451,7 @@
         <v>305.4325760421124</v>
       </c>
       <c r="E26" t="n">
-        <v>230.0423961284872</v>
+        <v>332.6799044936913</v>
       </c>
       <c r="F26" t="n">
         <v>357.6255801631409</v>
@@ -24463,7 +24463,7 @@
         <v>187.5868281719925</v>
       </c>
       <c r="I26" t="n">
-        <v>161.2254239918354</v>
+        <v>70.82230662376357</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>159.7696040076748</v>
       </c>
       <c r="T26" t="n">
-        <v>173.8453839855608</v>
+        <v>71.2078756203567</v>
       </c>
       <c r="U26" t="n">
-        <v>202.095187329266</v>
+        <v>99.45767896406184</v>
       </c>
       <c r="V26" t="n">
         <v>278.5017928915644</v>
@@ -24511,7 +24511,7 @@
         <v>320.4806350998985</v>
       </c>
       <c r="Y26" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.2827180712968</v>
+        <v>14.64520970609269</v>
       </c>
       <c r="C27" t="n">
         <v>123.4580334097452</v>
       </c>
       <c r="D27" t="n">
-        <v>98.19459998606823</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F27" t="n">
-        <v>95.81874681481335</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>88.09305158464011</v>
@@ -24542,7 +24542,7 @@
         <v>62.98497865792594</v>
       </c>
       <c r="I27" t="n">
-        <v>40.14616727284455</v>
+        <v>40.14616727284456</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,19 +24575,19 @@
         <v>122.4327055252673</v>
       </c>
       <c r="T27" t="n">
-        <v>60.5111457481793</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U27" t="n">
-        <v>74.05340813720018</v>
+        <v>176.6909165024043</v>
       </c>
       <c r="V27" t="n">
-        <v>80.91261320565063</v>
+        <v>81.88533427325632</v>
       </c>
       <c r="W27" t="n">
         <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
-        <v>53.88501125970284</v>
+        <v>156.5225196249069</v>
       </c>
       <c r="Y27" t="n">
         <v>156.4322301987338</v>
@@ -24621,10 +24621,10 @@
         <v>112.976706928869</v>
       </c>
       <c r="I28" t="n">
-        <v>59.90560651871822</v>
+        <v>3.562500983483631</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.10871453810226</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.91157767312386</v>
+        <v>36.91157767312387</v>
       </c>
       <c r="R28" t="n">
-        <v>25.40541743339485</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
         <v>174.7661324584017</v>
@@ -24657,13 +24657,13 @@
         <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
-        <v>134.4310554127163</v>
+        <v>146.6654464098486</v>
       </c>
       <c r="V28" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800533</v>
       </c>
       <c r="W28" t="n">
-        <v>134.6350243928164</v>
+        <v>134.6350243928163</v>
       </c>
       <c r="X28" t="n">
         <v>176.4591898104666</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>159.7696040076748</v>
+        <v>57.13209564247069</v>
       </c>
       <c r="T29" t="n">
         <v>71.2078756203567</v>
       </c>
       <c r="U29" t="n">
-        <v>111.6920699611942</v>
+        <v>109.6732139585692</v>
       </c>
       <c r="V29" t="n">
-        <v>175.8642845263603</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
-        <v>197.3529947736384</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X29" t="n">
         <v>320.4806350998985</v>
@@ -24764,22 +24764,22 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D30" t="n">
-        <v>98.19459998606823</v>
+        <v>77.48180013395883</v>
       </c>
       <c r="E30" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F30" t="n">
-        <v>95.81874681481335</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464011</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>62.98497865792594</v>
       </c>
       <c r="I30" t="n">
-        <v>40.14616727284456</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407261</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>32.02958815719552</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
         <v>150.9142631162511</v>
@@ -24818,10 +24818,10 @@
         <v>74.05340813720017</v>
       </c>
       <c r="V30" t="n">
-        <v>80.91261320565062</v>
+        <v>183.5501215708547</v>
       </c>
       <c r="W30" t="n">
-        <v>99.80700921714495</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X30" t="n">
         <v>156.5225196249069</v>
@@ -24861,7 +24861,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810225</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.91157767312387</v>
+        <v>36.91157767312386</v>
       </c>
       <c r="R31" t="n">
         <v>128.042925798599</v>
@@ -24891,19 +24891,19 @@
         <v>174.7661324584017</v>
       </c>
       <c r="T31" t="n">
-        <v>178.695123849711</v>
+        <v>76.05761548450684</v>
       </c>
       <c r="U31" t="n">
-        <v>146.6654464098486</v>
+        <v>134.4310554127162</v>
       </c>
       <c r="V31" t="n">
         <v>100.2496693800533</v>
       </c>
       <c r="W31" t="n">
-        <v>134.6350243928163</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X31" t="n">
-        <v>73.8216814452625</v>
+        <v>86.05607244239481</v>
       </c>
       <c r="Y31" t="n">
         <v>169.3341877735243</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.7371531816037</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C32" t="n">
-        <v>169.2762032891306</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D32" t="n">
         <v>261.3238615040102</v>
@@ -24931,7 +24931,7 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G32" t="n">
-        <v>321.9435573984623</v>
+        <v>219.3060490332582</v>
       </c>
       <c r="H32" t="n">
         <v>246.1156219990944</v>
@@ -24967,13 +24967,13 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6608894695726</v>
+        <v>25.25777210150079</v>
       </c>
       <c r="T32" t="n">
         <v>129.7366694474586</v>
       </c>
       <c r="U32" t="n">
-        <v>157.9864727911637</v>
+        <v>55.34896442595959</v>
       </c>
       <c r="V32" t="n">
         <v>234.3930783534621</v>
@@ -24982,7 +24982,7 @@
         <v>255.8817886007402</v>
       </c>
       <c r="X32" t="n">
-        <v>185.9688031937245</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y32" t="n">
         <v>190.2412501741767</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F33" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.42986675897883</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T33" t="n">
-        <v>4.168040212944703</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U33" t="n">
-        <v>29.94469359909792</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V33" t="n">
-        <v>139.4414070327525</v>
+        <v>62.30560586494454</v>
       </c>
       <c r="W33" t="n">
         <v>158.3358030442468</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.47280006526452</v>
+        <v>80.00389395768946</v>
       </c>
       <c r="C34" t="n">
         <v>73.88764098195506</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>130.6574179202995</v>
@@ -25131,19 +25131,19 @@
         <v>134.5864093116087</v>
       </c>
       <c r="U34" t="n">
-        <v>192.9598492398181</v>
+        <v>90.32234087461399</v>
       </c>
       <c r="V34" t="n">
-        <v>56.1409548419511</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
         <v>90.5263098547141</v>
       </c>
       <c r="X34" t="n">
-        <v>29.71296690716025</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.8223558673502</v>
+        <v>22.58796487021789</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
-        <v>288.571189955589</v>
+        <v>198.1680725875173</v>
       </c>
       <c r="F35" t="n">
         <v>210.8793572598346</v>
       </c>
       <c r="G35" t="n">
-        <v>219.3060490332582</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H35" t="n">
-        <v>155.7125046310226</v>
+        <v>143.4781136338902</v>
       </c>
       <c r="I35" t="n">
         <v>14.47920108852901</v>
@@ -25235,22 +25235,22 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E36" t="n">
         <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
         <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.797137738916902</v>
       </c>
       <c r="T36" t="n">
         <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
-        <v>107.1719494852774</v>
+        <v>29.94469359909792</v>
       </c>
       <c r="V36" t="n">
         <v>139.4414070327525</v>
@@ -25298,7 +25298,7 @@
         <v>55.6982946790427</v>
       </c>
       <c r="X36" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600573</v>
       </c>
       <c r="Y36" t="n">
         <v>112.3235156606316</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
         <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
         <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>28.01990955509535</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>112.6403630558933</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>192.9598492398181</v>
+        <v>112.8984490900972</v>
       </c>
       <c r="V37" t="n">
         <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>193.1638182199182</v>
+        <v>90.5263098547141</v>
       </c>
       <c r="X37" t="n">
         <v>132.3504752723644</v>
@@ -25393,7 +25393,7 @@
         <v>289.3746615468078</v>
       </c>
       <c r="C38" t="n">
-        <v>169.2762032891306</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
         <v>261.3238615040102</v>
@@ -25405,10 +25405,10 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
-        <v>219.3060490332582</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H38" t="n">
-        <v>246.1156219990944</v>
+        <v>143.4781136338902</v>
       </c>
       <c r="I38" t="n">
         <v>117.1167094537331</v>
@@ -25444,16 +25444,16 @@
         <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>39.33355207938681</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U38" t="n">
-        <v>157.9864727911637</v>
+        <v>67.58335542309194</v>
       </c>
       <c r="V38" t="n">
         <v>131.755569988258</v>
       </c>
       <c r="W38" t="n">
-        <v>255.8817886007402</v>
+        <v>153.2442802355361</v>
       </c>
       <c r="X38" t="n">
         <v>276.3719205617963</v>
@@ -25472,13 +25472,13 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,16 +25523,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>106.8055485781488</v>
+        <v>4.168040212944703</v>
       </c>
       <c r="U39" t="n">
-        <v>132.582201964302</v>
+        <v>92.10853095236263</v>
       </c>
       <c r="V39" t="n">
-        <v>132.9074186735516</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W39" t="n">
-        <v>55.6982946790427</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X39" t="n">
         <v>112.4138050868047</v>
@@ -25557,19 +25557,19 @@
         <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
-        <v>15.04960278081307</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>134.5864093116087</v>
+        <v>31.94890094640459</v>
       </c>
       <c r="U40" t="n">
-        <v>192.9598492398181</v>
+        <v>102.5567318717463</v>
       </c>
       <c r="V40" t="n">
         <v>56.1409548419511</v>
@@ -25614,7 +25614,7 @@
         <v>193.1638182199182</v>
       </c>
       <c r="X40" t="n">
-        <v>132.3504752723644</v>
+        <v>29.71296690716025</v>
       </c>
       <c r="Y40" t="n">
         <v>125.225473235422</v>
@@ -25645,10 +25645,10 @@
         <v>263.4147635713604</v>
       </c>
       <c r="H41" t="n">
-        <v>290.2243365371966</v>
+        <v>197.8023631664998</v>
       </c>
       <c r="I41" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663126</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>159.7696040076748</v>
@@ -25690,13 +25690,13 @@
         <v>278.5017928915644</v>
       </c>
       <c r="W41" t="n">
-        <v>209.5873857707707</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8431267346944</v>
+        <v>320.4806350998985</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.3499647122789</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>117.2827180712968</v>
       </c>
       <c r="C42" t="n">
-        <v>123.4580334097452</v>
+        <v>33.05491604167339</v>
       </c>
       <c r="D42" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E42" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F42" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G42" t="n">
-        <v>88.09305158464012</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.98497865792594</v>
       </c>
       <c r="I42" t="n">
-        <v>12.7280285626987</v>
+        <v>40.14616727284456</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407261</v>
       </c>
       <c r="S42" t="n">
-        <v>19.79519716006318</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T42" t="n">
         <v>150.9142631162511</v>
       </c>
       <c r="U42" t="n">
-        <v>176.6909165024043</v>
+        <v>74.05340813720017</v>
       </c>
       <c r="V42" t="n">
-        <v>183.5501215708547</v>
+        <v>80.91261320565062</v>
       </c>
       <c r="W42" t="n">
         <v>99.80700921714495</v>
       </c>
       <c r="X42" t="n">
-        <v>53.88501125970285</v>
+        <v>156.5225196249069</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.4322301987339</v>
+        <v>156.4322301987338</v>
       </c>
     </row>
     <row r="43">
@@ -25791,19 +25791,19 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>45.87346774469388</v>
+        <v>99.36500743964183</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799864</v>
       </c>
       <c r="F43" t="n">
-        <v>96.17058244436073</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>118.7405137798882</v>
+        <v>16.10300541468411</v>
       </c>
       <c r="H43" t="n">
-        <v>112.9767069288691</v>
+        <v>112.976706928869</v>
       </c>
       <c r="I43" t="n">
         <v>106.2000093486878</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>36.91157767312387</v>
       </c>
       <c r="R43" t="n">
-        <v>128.042925798599</v>
+        <v>31.17288250968376</v>
       </c>
       <c r="S43" t="n">
-        <v>174.7661324584017</v>
+        <v>72.1286240931976</v>
       </c>
       <c r="T43" t="n">
         <v>178.695123849711</v>
       </c>
       <c r="U43" t="n">
-        <v>134.4310554127162</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V43" t="n">
-        <v>100.2496693800533</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W43" t="n">
-        <v>134.6350243928163</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X43" t="n">
         <v>176.4591898104666</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.48337608491</v>
+        <v>230.8458677197059</v>
       </c>
       <c r="C44" t="n">
         <v>316.022426192437</v>
@@ -25873,7 +25873,7 @@
         <v>305.4325760421124</v>
       </c>
       <c r="E44" t="n">
-        <v>332.6799044936913</v>
+        <v>230.0423961284871</v>
       </c>
       <c r="F44" t="n">
         <v>357.6255801631409</v>
@@ -25885,7 +25885,7 @@
         <v>290.2243365371966</v>
       </c>
       <c r="I44" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663126</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S44" t="n">
-        <v>67.34763063697815</v>
+        <v>69.36648663960304</v>
       </c>
       <c r="T44" t="n">
         <v>173.8453839855608</v>
       </c>
       <c r="U44" t="n">
-        <v>99.45767896406187</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V44" t="n">
         <v>278.5017928915644</v>
       </c>
       <c r="W44" t="n">
-        <v>197.3529947736384</v>
+        <v>299.9905031388425</v>
       </c>
       <c r="X44" t="n">
         <v>320.4806350998985</v>
@@ -25949,19 +25949,19 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D45" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606823</v>
       </c>
       <c r="E45" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F45" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481335</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>88.09305158464011</v>
       </c>
       <c r="H45" t="n">
-        <v>8.944773083362882</v>
+        <v>62.98497865792594</v>
       </c>
       <c r="I45" t="n">
         <v>40.14616727284456</v>
@@ -25997,7 +25997,7 @@
         <v>122.4327055252673</v>
       </c>
       <c r="T45" t="n">
-        <v>150.9142631162511</v>
+        <v>48.27675475104695</v>
       </c>
       <c r="U45" t="n">
         <v>176.6909165024043</v>
@@ -26006,13 +26006,13 @@
         <v>183.5501215708547</v>
       </c>
       <c r="W45" t="n">
-        <v>202.4445175823491</v>
+        <v>162.9487687883499</v>
       </c>
       <c r="X45" t="n">
-        <v>53.88501125970288</v>
+        <v>53.88501125970282</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.79472183352976</v>
+        <v>53.79472183352971</v>
       </c>
     </row>
     <row r="46">
@@ -26025,28 +26025,28 @@
         <v>130.5815146033668</v>
       </c>
       <c r="C46" t="n">
-        <v>15.35884715485322</v>
+        <v>117.9963555200573</v>
       </c>
       <c r="D46" t="n">
-        <v>99.36500743964184</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.18349706799866</v>
+        <v>97.18349706799864</v>
       </c>
       <c r="F46" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436072</v>
       </c>
       <c r="G46" t="n">
         <v>118.7405137798882</v>
       </c>
       <c r="H46" t="n">
-        <v>112.9767069288691</v>
+        <v>19.30108863523495</v>
       </c>
       <c r="I46" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.10871453810226</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.91157767312387</v>
       </c>
       <c r="R46" t="n">
         <v>128.042925798599</v>
@@ -26076,22 +26076,22 @@
         <v>174.7661324584017</v>
       </c>
       <c r="T46" t="n">
-        <v>178.695123849711</v>
+        <v>76.05761548450684</v>
       </c>
       <c r="U46" t="n">
-        <v>134.4310554127163</v>
+        <v>237.0685637779204</v>
       </c>
       <c r="V46" t="n">
-        <v>193.5043525884118</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W46" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928163</v>
       </c>
       <c r="X46" t="n">
         <v>176.4591898104666</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.69667940832016</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>558616.646251822</v>
+        <v>558616.6462518221</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>471072.1350165703</v>
+        <v>471072.1350165702</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>471072.1350165703</v>
+        <v>471072.1350165702</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>562784.7631653461</v>
+        <v>562784.763165346</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562784.7631653461</v>
+        <v>562784.7631653462</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
         <v>716866.7963774084</v>
@@ -26325,31 +26325,31 @@
         <v>369952.6102288924</v>
       </c>
       <c r="F2" t="n">
-        <v>369952.6102288924</v>
+        <v>369952.6102288921</v>
       </c>
       <c r="G2" t="n">
         <v>380499.5704380075</v>
       </c>
       <c r="H2" t="n">
-        <v>380499.5704380073</v>
+        <v>380499.5704380074</v>
       </c>
       <c r="I2" t="n">
-        <v>431384.393762743</v>
+        <v>431384.3937627432</v>
       </c>
       <c r="J2" t="n">
         <v>343839.8825274912</v>
       </c>
       <c r="K2" t="n">
-        <v>343839.8825274912</v>
+        <v>343839.8825274913</v>
       </c>
       <c r="L2" t="n">
+        <v>435552.5106762676</v>
+      </c>
+      <c r="M2" t="n">
         <v>435552.510676268</v>
       </c>
-      <c r="M2" t="n">
-        <v>435552.5106762677</v>
-      </c>
       <c r="N2" t="n">
-        <v>435552.5106762677</v>
+        <v>435552.5106762679</v>
       </c>
       <c r="O2" t="n">
         <v>343839.8825274913</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4113.400832374611</v>
+        <v>4113.400832374635</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27293.46886198344</v>
+        <v>27293.46886198345</v>
       </c>
       <c r="J3" t="n">
         <v>35286.97163048181</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39400.37246285642</v>
+        <v>39400.37246285643</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26447,13 +26447,13 @@
         <v>199399.5792205975</v>
       </c>
       <c r="L4" t="n">
-        <v>259224.2061476248</v>
+        <v>259224.2061476247</v>
       </c>
       <c r="M4" t="n">
         <v>259224.2061476247</v>
       </c>
       <c r="N4" t="n">
-        <v>259224.2061476248</v>
+        <v>259224.2061476247</v>
       </c>
       <c r="O4" t="n">
         <v>199399.5792205975</v>
@@ -26484,13 +26484,13 @@
         <v>7243.556814126696</v>
       </c>
       <c r="G5" t="n">
-        <v>7675.818682347822</v>
+        <v>7675.818682347825</v>
       </c>
       <c r="H5" t="n">
-        <v>7675.818682347822</v>
+        <v>7675.818682347825</v>
       </c>
       <c r="I5" t="n">
-        <v>13916.17919095223</v>
+        <v>13916.17919095224</v>
       </c>
       <c r="J5" t="n">
         <v>10380.79789932926</v>
@@ -26511,7 +26511,7 @@
         <v>10380.79789932926</v>
       </c>
       <c r="P5" t="n">
-        <v>10380.79789932925</v>
+        <v>10380.79789932926</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236214.5761050156</v>
+        <v>236170.4403263346</v>
       </c>
       <c r="C6" t="n">
-        <v>236214.5761050156</v>
+        <v>236170.4403263344</v>
       </c>
       <c r="D6" t="n">
-        <v>236214.5761050157</v>
+        <v>236170.4403263346</v>
       </c>
       <c r="E6" t="n">
-        <v>73048.73625656529</v>
+        <v>63092.76658792656</v>
       </c>
       <c r="F6" t="n">
-        <v>141978.3708579208</v>
+        <v>132022.4011892818</v>
       </c>
       <c r="G6" t="n">
-        <v>141099.8310696508</v>
+        <v>131445.2031212725</v>
       </c>
       <c r="H6" t="n">
-        <v>145213.2319020252</v>
+        <v>135558.603953647</v>
       </c>
       <c r="I6" t="n">
-        <v>133669.4240208779</v>
+        <v>125468.6481674922</v>
       </c>
       <c r="J6" t="n">
-        <v>98772.53377708257</v>
+        <v>88070.48617411814</v>
       </c>
       <c r="K6" t="n">
-        <v>134059.5054075644</v>
+        <v>123357.4578046001</v>
       </c>
       <c r="L6" t="n">
-        <v>122838.9586439538</v>
+        <v>114757.2718452397</v>
       </c>
       <c r="M6" t="n">
-        <v>162239.33110681</v>
+        <v>154157.6443080966</v>
       </c>
       <c r="N6" t="n">
-        <v>162239.33110681</v>
+        <v>154157.6443080965</v>
       </c>
       <c r="O6" t="n">
-        <v>134059.5054075646</v>
+        <v>123357.4578046001</v>
       </c>
       <c r="P6" t="n">
-        <v>134059.5054075646</v>
+        <v>123357.4578046</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="G2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I2" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J2" t="n">
+        <v>49.25046557857052</v>
+      </c>
+      <c r="K2" t="n">
         <v>49.25046557857053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>49.25046557857052</v>
       </c>
       <c r="L2" t="n">
         <v>93.35918011667277</v>
@@ -26724,10 +26724,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="3">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="19">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28769,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="22">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29006,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="C25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="D25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="E25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="F25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="G25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="H25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="I25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="J25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>75.04748310488799</v>
       </c>
       <c r="M25" t="n">
-        <v>63.05363140336353</v>
+        <v>62.78298831282207</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.50533598597553</v>
       </c>
       <c r="O25" t="n">
-        <v>44.69982244326602</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.30379429216265</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="R25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="S25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="T25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="U25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="V25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="W25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="X25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.30379429216265</v>
+        <v>91.30379429216268</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.25046557857053</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="C31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="D31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="E31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="F31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="G31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="H31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="I31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="J31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="K31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="L31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="M31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="N31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="O31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="P31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="R31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="S31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="T31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="U31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="V31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="W31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="X31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857053</v>
       </c>
     </row>
     <row r="32">
@@ -29936,13 +29936,13 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>75.04748310488799</v>
       </c>
       <c r="M34" t="n">
-        <v>43.08196038712369</v>
+        <v>26.53981326821125</v>
       </c>
       <c r="N34" t="n">
-        <v>58.50533598597553</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30410,22 +30410,22 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>75.04748310488799</v>
       </c>
       <c r="M40" t="n">
-        <v>43.08196038712369</v>
+        <v>63.05363140336354</v>
       </c>
       <c r="N40" t="n">
         <v>58.50533598597553</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2.815722125416791</v>
       </c>
       <c r="P40" t="n">
-        <v>93.35918011667277</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.35918011667277</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>93.35918011667277</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="C46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="D46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="E46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="F46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="G46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="H46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="I46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="J46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="K46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="L46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="M46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="N46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="O46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="P46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="R46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="S46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="T46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="U46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="V46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="W46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="X46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857052</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7.924825914033272</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M23" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L24" t="n">
+        <v>102.6375083652041</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>28.39502468041881</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N24" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O24" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.0343024662798</v>
+        <v>69.03430246627983</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M25" t="n">
+        <v>102.3668652746627</v>
+      </c>
+      <c r="N25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N25" t="n">
-        <v>44.13217237922859</v>
-      </c>
       <c r="O25" t="n">
-        <v>69.28495035730569</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
-        <v>88.58235355705614</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.141751040468264</v>
+        <v>5.141751040468293</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.924825914033272</v>
+        <v>98.49053833024635</v>
       </c>
       <c r="M26" t="n">
         <v>102.6375083652041</v>
@@ -36612,7 +36612,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>98.49053833024634</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L27" t="n">
         <v>102.6375083652041</v>
@@ -36685,7 +36685,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N27" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>98.49053833024635</v>
+      </c>
+      <c r="M29" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.924825914033268</v>
       </c>
       <c r="O29" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L30" t="n">
+        <v>98.49053833024635</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M30" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M32" t="n">
-        <v>7.924825914033268</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.39502468041879</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024635</v>
       </c>
       <c r="N33" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P33" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M34" t="n">
-        <v>82.66583734896427</v>
+        <v>66.12369023005184</v>
       </c>
       <c r="N34" t="n">
-        <v>102.6375083652041</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7.92482591403327</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N35" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39502468041879</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N36" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024637</v>
       </c>
       <c r="O36" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L38" t="n">
+        <v>98.49053833024635</v>
+      </c>
+      <c r="M38" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M38" t="n">
-        <v>7.924825914033268</v>
       </c>
       <c r="N38" t="n">
         <v>102.6375083652041</v>
@@ -37560,7 +37560,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39502468041884</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>27.59002526031614</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M40" t="n">
-        <v>82.66583734896427</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N40" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>27.40085003945646</v>
       </c>
       <c r="P40" t="n">
-        <v>90.63773938156626</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.19713686497839</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M41" t="n">
-        <v>98.49053833024637</v>
+        <v>7.924825914033268</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L42" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M42" t="n">
-        <v>98.49053833024635</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N42" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024639</v>
       </c>
       <c r="O42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L43" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M43" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N43" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O43" t="n">
-        <v>73.83559349261019</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P43" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L44" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033268</v>
       </c>
       <c r="M44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N44" t="n">
-        <v>98.49053833024634</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>28.39502468041879</v>
+      </c>
+      <c r="N45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N45" t="n">
-        <v>98.49053833024634</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268767</v>
       </c>
       <c r="L46" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888667</v>
       </c>
       <c r="M46" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041111</v>
       </c>
       <c r="N46" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779912</v>
       </c>
       <c r="O46" t="n">
-        <v>73.83559349261019</v>
+        <v>73.8355934926102</v>
       </c>
       <c r="P46" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346401</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
